--- a/spec/fixtures/files/bulk_products_upload_complete_product.xlsx
+++ b/spec/fixtures/files/bulk_products_upload_complete_product.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
   <si>
     <t>* - Depicts a mandatory field</t>
   </si>
@@ -128,70 +128,73 @@
     <t>Algeria</t>
   </si>
   <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>UKNI</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Decorative articles</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>UKCA, UKNI</t>
+  </si>
+  <si>
+    <t>Eco-design</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>UKCA, CE</t>
+  </si>
+  <si>
+    <t>Electrical appliances and equipment</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Jan-21</t>
+  </si>
+  <si>
+    <t>UKNI, CE</t>
+  </si>
+  <si>
+    <t>Explosive atmospheres equipment</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Food-imitating products</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Unable to ascertain</t>
+  </si>
+  <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>UKNI</t>
-  </si>
-  <si>
-    <t>Cosmetics</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>Decorative articles</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>UKCA, UKNI</t>
-  </si>
-  <si>
-    <t>Eco-design</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>UKCA, CE</t>
-  </si>
-  <si>
-    <t>Electrical appliances and equipment</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Jan-21</t>
-  </si>
-  <si>
-    <t>UKNI, CE</t>
-  </si>
-  <si>
-    <t>Explosive atmospheres equipment</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Food-imitating products</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Furniture</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Unable to ascertain</t>
   </si>
   <si>
     <t>Gadgets</t>
@@ -958,7 +961,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1116,19 +1119,12 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,26 +1434,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1560,80 +1543,80 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1641,46 +1624,37 @@
     <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2741,7 +2715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O1149"/>
+  <dimension ref="A1:O1146"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -22280,89 +22254,38 @@
       <c r="O1144" s="11"/>
     </row>
     <row r="1145" ht="13.55" customHeight="1">
-      <c r="A1145" s="30"/>
-      <c r="B1145" s="30"/>
-      <c r="C1145" s="30"/>
-      <c r="D1145" s="30"/>
-      <c r="E1145" s="30"/>
-      <c r="F1145" s="30"/>
-      <c r="G1145" s="30"/>
-      <c r="H1145" s="30"/>
-      <c r="I1145" s="29"/>
-      <c r="J1145" s="30"/>
-      <c r="K1145" s="30"/>
-      <c r="L1145" s="30"/>
-      <c r="M1145" s="30"/>
-      <c r="N1145" s="30"/>
+      <c r="A1145" s="34"/>
+      <c r="B1145" s="34"/>
+      <c r="C1145" s="34"/>
+      <c r="D1145" s="34"/>
+      <c r="E1145" s="34"/>
+      <c r="F1145" s="34"/>
+      <c r="G1145" s="34"/>
+      <c r="H1145" s="34"/>
+      <c r="I1145" s="35"/>
+      <c r="J1145" s="34"/>
+      <c r="K1145" s="34"/>
+      <c r="L1145" s="34"/>
+      <c r="M1145" s="34"/>
+      <c r="N1145" s="34"/>
       <c r="O1145" s="3"/>
     </row>
     <row r="1146" ht="13.55" customHeight="1">
-      <c r="A1146" s="31"/>
-      <c r="B1146" s="26"/>
-      <c r="C1146" s="26"/>
-      <c r="D1146" s="26"/>
-      <c r="E1146" s="26"/>
-      <c r="F1146" s="26"/>
-      <c r="G1146" s="26"/>
-      <c r="H1146" s="26"/>
-      <c r="I1146" s="26"/>
-      <c r="J1146" s="26"/>
-      <c r="K1146" s="26"/>
-      <c r="L1146" s="26"/>
-      <c r="M1146" s="26"/>
-      <c r="N1146" s="26"/>
-      <c r="O1146" s="11"/>
-    </row>
-    <row r="1147" ht="13.55" customHeight="1">
-      <c r="A1147" s="30"/>
-      <c r="B1147" s="30"/>
-      <c r="C1147" s="30"/>
-      <c r="D1147" s="30"/>
-      <c r="E1147" s="30"/>
-      <c r="F1147" s="30"/>
-      <c r="G1147" s="30"/>
-      <c r="H1147" s="30"/>
-      <c r="I1147" s="29"/>
-      <c r="J1147" s="30"/>
-      <c r="K1147" s="30"/>
-      <c r="L1147" s="30"/>
-      <c r="M1147" s="30"/>
-      <c r="N1147" s="30"/>
-      <c r="O1147" s="3"/>
-    </row>
-    <row r="1148" ht="15" customHeight="1">
-      <c r="A1148" s="34"/>
-      <c r="B1148" s="35"/>
-      <c r="C1148" s="35"/>
-      <c r="D1148" s="35"/>
-      <c r="E1148" s="35"/>
-      <c r="F1148" s="35"/>
-      <c r="G1148" s="35"/>
-      <c r="H1148" s="35"/>
-      <c r="I1148" s="35"/>
-      <c r="J1148" s="35"/>
-      <c r="K1148" s="35"/>
-      <c r="L1148" s="35"/>
-      <c r="M1148" s="35"/>
-      <c r="N1148" s="35"/>
-      <c r="O1148" s="11"/>
-    </row>
-    <row r="1149" ht="14.05" customHeight="1">
-      <c r="A1149" s="36"/>
-      <c r="B1149" s="36"/>
-      <c r="C1149" s="36"/>
-      <c r="D1149" s="36"/>
-      <c r="E1149" s="36"/>
-      <c r="F1149" s="36"/>
-      <c r="G1149" s="36"/>
-      <c r="H1149" s="36"/>
-      <c r="I1149" s="37"/>
-      <c r="J1149" s="36"/>
-      <c r="K1149" s="36"/>
-      <c r="L1149" s="36"/>
-      <c r="M1149" s="36"/>
-      <c r="N1149" s="36"/>
-      <c r="O1149" s="3"/>
+      <c r="A1146" s="3"/>
+      <c r="B1146" s="3"/>
+      <c r="C1146" s="3"/>
+      <c r="D1146" s="3"/>
+      <c r="E1146" s="3"/>
+      <c r="F1146" s="3"/>
+      <c r="G1146" s="3"/>
+      <c r="H1146" s="3"/>
+      <c r="I1146" s="4"/>
+      <c r="J1146" s="3"/>
+      <c r="K1146" s="3"/>
+      <c r="L1146" s="3"/>
+      <c r="M1146" s="3"/>
+      <c r="N1146" s="3"/>
+      <c r="O1146" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22384,14 +22307,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1146">
       <formula1>"Hand sanitiser,Chemical products,Childcare articles and children’s equipment,Communication and media equipment,Construction products,Cosmetics,Decorative articles,Eco-design,Electrical appliances and equipment,Explosive atmospheres equipment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1146">
       <formula1>"Afghanistan,Albania,Algeria,Andorra,Angola,Antigua and Barbuda,Argentina,Armenia,Australia,Austria,Azerbaijan,Bahamas,Bahrain,Bangladesh,Barbados,Belarus,Belgium,Belize,Benin,Bhutan,Bolivia,Bosnia and Herzegovina,Botswana,Brazil,Brunei,Bulgaria"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L217">
-      <formula1>"Yes,No ,Unknown"</formula1>
+      <formula1>"Yes,No ,Unsure"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M63">
       <formula1>"UKCA,UKNI,CE,No,Unknown"</formula1>
@@ -22416,25 +22339,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="60.1719" style="38" customWidth="1"/>
-    <col min="2" max="4" width="8.85156" style="38" customWidth="1"/>
-    <col min="5" max="5" width="23.6719" style="38" customWidth="1"/>
-    <col min="6" max="10" width="8.85156" style="38" customWidth="1"/>
-    <col min="11" max="11" width="17.8516" style="38" customWidth="1"/>
-    <col min="12" max="12" width="8.85156" style="38" customWidth="1"/>
-    <col min="13" max="13" width="15.8516" style="38" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="38" customWidth="1"/>
-    <col min="15" max="16384" width="8.85156" style="38" customWidth="1"/>
+    <col min="1" max="1" width="60.1719" style="36" customWidth="1"/>
+    <col min="2" max="4" width="8.85156" style="36" customWidth="1"/>
+    <col min="5" max="5" width="23.6719" style="36" customWidth="1"/>
+    <col min="6" max="10" width="8.85156" style="36" customWidth="1"/>
+    <col min="11" max="11" width="17.8516" style="36" customWidth="1"/>
+    <col min="12" max="12" width="8.85156" style="36" customWidth="1"/>
+    <col min="13" max="13" width="15.8516" style="36" customWidth="1"/>
+    <col min="14" max="14" width="8.85156" style="36" customWidth="1"/>
+    <col min="15" max="16384" width="8.85156" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="39">
+      <c r="A1" t="s" s="37">
         <v>23</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="3"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="41"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
@@ -22446,18 +22369,18 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" ht="14.5" customHeight="1">
-      <c r="A2" t="s" s="42">
+      <c r="A2" t="s" s="40">
         <v>16</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" t="s" s="45">
+      <c r="B2" s="38"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" t="s" s="43">
         <v>24</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="11"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -22466,332 +22389,332 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="48">
+      <c r="A3" t="s" s="46">
         <v>25</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="49"/>
-      <c r="E3" t="s" s="45">
+      <c r="B3" s="38"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="47"/>
+      <c r="E3" t="s" s="43">
         <v>26</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="11"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="41"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" ht="15.65" customHeight="1">
-      <c r="A4" t="s" s="42">
+      <c r="A4" t="s" s="40">
         <v>27</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="57"/>
-      <c r="K4" t="s" s="39">
+      <c r="J4" s="55"/>
+      <c r="K4" t="s" s="37">
         <v>28</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="48">
+      <c r="A5" t="s" s="46">
         <v>29</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="52"/>
-      <c r="E5" t="s" s="58">
+      <c r="B5" s="38"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="50"/>
+      <c r="E5" t="s" s="56">
         <v>30</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="57"/>
-      <c r="K5" t="s" s="42">
+      <c r="J5" s="55"/>
+      <c r="K5" t="s" s="40">
         <v>20</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" t="s" s="39">
+      <c r="L5" s="57"/>
+      <c r="M5" t="s" s="37">
         <v>31</v>
       </c>
-      <c r="N5" s="40"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="42">
+      <c r="A6" t="s" s="40">
         <v>32</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="52"/>
-      <c r="E6" t="s" s="58">
+      <c r="B6" s="38"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="50"/>
+      <c r="E6" t="s" s="56">
         <v>33</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="57"/>
-      <c r="K6" t="s" s="48">
+      <c r="J6" s="55"/>
+      <c r="K6" t="s" s="46">
         <v>34</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" t="s" s="42">
+      <c r="L6" s="57"/>
+      <c r="M6" t="s" s="40">
         <v>35</v>
       </c>
-      <c r="N6" s="40"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="48">
+      <c r="A7" t="s" s="46">
         <v>36</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="52"/>
-      <c r="E7" t="s" s="58">
+      <c r="B7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="50"/>
+      <c r="E7" t="s" s="56">
         <v>37</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="57"/>
-      <c r="K7" t="s" s="42">
+      <c r="J7" s="55"/>
+      <c r="K7" t="s" s="40">
         <v>38</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" t="s" s="48">
+      <c r="L7" s="57"/>
+      <c r="M7" t="s" s="46">
         <v>39</v>
       </c>
-      <c r="N7" s="40"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="42">
+      <c r="A8" t="s" s="40">
         <v>40</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="52"/>
-      <c r="E8" t="s" s="58">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="50"/>
+      <c r="E8" t="s" s="56">
         <v>41</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="60"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="57"/>
-      <c r="M8" t="s" s="42">
+      <c r="M8" t="s" s="40">
         <v>42</v>
       </c>
-      <c r="N8" s="40"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" ht="35.15" customHeight="1">
-      <c r="A9" t="s" s="48">
+      <c r="A9" t="s" s="46">
         <v>43</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="52"/>
-      <c r="E9" t="s" s="58">
+      <c r="B9" s="38"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="50"/>
+      <c r="E9" t="s" s="56">
         <v>44</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="11"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="57"/>
-      <c r="M9" t="s" s="48">
+      <c r="K9" s="59"/>
+      <c r="L9" s="55"/>
+      <c r="M9" t="s" s="46">
         <v>45</v>
       </c>
-      <c r="N9" s="40"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="42">
+      <c r="A10" t="s" s="40">
         <v>46</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="52"/>
-      <c r="E10" t="s" s="58">
+      <c r="B10" s="38"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="50"/>
+      <c r="E10" t="s" s="56">
         <v>47</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="11"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="57"/>
-      <c r="M10" t="s" s="42">
+      <c r="K10" s="39"/>
+      <c r="L10" s="55"/>
+      <c r="M10" t="s" s="40">
         <v>48</v>
       </c>
-      <c r="N10" s="40"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="48">
+      <c r="A11" t="s" s="46">
         <v>49</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="52"/>
-      <c r="E11" t="s" s="58">
+      <c r="B11" s="38"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="50"/>
+      <c r="E11" t="s" s="56">
         <v>50</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="57"/>
-      <c r="K11" t="s" s="39">
+      <c r="J11" s="55"/>
+      <c r="K11" t="s" s="37">
         <v>51</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" t="s" s="48">
+      <c r="L11" s="57"/>
+      <c r="M11" t="s" s="46">
         <v>52</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="42">
+      <c r="A12" t="s" s="40">
         <v>53</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="52"/>
-      <c r="E12" t="s" s="58">
+      <c r="B12" s="38"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="50"/>
+      <c r="E12" t="s" s="56">
         <v>54</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="57"/>
-      <c r="K12" t="s" s="42">
+      <c r="J12" s="55"/>
+      <c r="K12" t="s" s="40">
         <v>20</v>
       </c>
-      <c r="L12" s="59"/>
-      <c r="M12" t="s" s="42">
+      <c r="L12" s="57"/>
+      <c r="M12" t="s" s="40">
         <v>21</v>
       </c>
-      <c r="N12" s="40"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="48">
+      <c r="A13" t="s" s="46">
         <v>55</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="52"/>
-      <c r="E13" t="s" s="58">
+      <c r="B13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="50"/>
+      <c r="E13" t="s" s="56">
         <v>56</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="57"/>
-      <c r="K13" t="s" s="48">
+      <c r="J13" s="55"/>
+      <c r="K13" t="s" s="46">
         <v>22</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" t="s" s="48">
+      <c r="L13" s="57"/>
+      <c r="M13" t="s" s="46">
         <v>22</v>
       </c>
-      <c r="N13" s="40"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="42">
+      <c r="A14" t="s" s="40">
         <v>57</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="52"/>
-      <c r="E14" t="s" s="58">
+      <c r="B14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="50"/>
+      <c r="E14" t="s" s="56">
         <v>58</v>
       </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="57"/>
-      <c r="K14" t="s" s="42">
+      <c r="J14" s="55"/>
+      <c r="K14" t="s" s="40">
         <v>59</v>
       </c>
-      <c r="L14" s="59"/>
-      <c r="M14" t="s" s="42">
-        <v>38</v>
-      </c>
-      <c r="N14" s="40"/>
+      <c r="L14" s="57"/>
+      <c r="M14" t="s" s="40">
+        <v>60</v>
+      </c>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="48">
-        <v>60</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="52"/>
-      <c r="E15" t="s" s="58">
+      <c r="A15" t="s" s="46">
         <v>61</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="50"/>
+      <c r="E15" t="s" s="56">
+        <v>62</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="60"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="59"/>
       <c r="N15" s="3"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="42">
-        <v>62</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="52"/>
-      <c r="E16" t="s" s="58">
+      <c r="A16" t="s" s="40">
         <v>63</v>
       </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="50"/>
+      <c r="E16" t="s" s="56">
+        <v>64</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="11"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="60"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17" ht="23.5" customHeight="1">
-      <c r="A17" t="s" s="48">
-        <v>64</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="52"/>
-      <c r="E17" t="s" s="58">
+      <c r="A17" t="s" s="46">
         <v>65</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="50"/>
+      <c r="E17" t="s" s="56">
+        <v>66</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="11"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -22800,18 +22723,18 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="42">
-        <v>66</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="52"/>
-      <c r="E18" t="s" s="58">
+      <c r="A18" t="s" s="40">
         <v>67</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="50"/>
+      <c r="E18" t="s" s="56">
+        <v>68</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="11"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -22820,18 +22743,18 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="48">
-        <v>68</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="52"/>
-      <c r="E19" t="s" s="58">
+      <c r="A19" t="s" s="46">
         <v>69</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="50"/>
+      <c r="E19" t="s" s="56">
+        <v>70</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="11"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -22840,18 +22763,18 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="42">
-        <v>70</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="52"/>
-      <c r="E20" t="s" s="58">
+      <c r="A20" t="s" s="40">
         <v>71</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="50"/>
+      <c r="E20" t="s" s="56">
+        <v>72</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="11"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -22860,18 +22783,18 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="48">
-        <v>72</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="52"/>
-      <c r="E21" t="s" s="58">
+      <c r="A21" t="s" s="46">
         <v>73</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="50"/>
+      <c r="E21" t="s" s="56">
+        <v>74</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="11"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -22880,18 +22803,18 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="42">
-        <v>74</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="52"/>
-      <c r="E22" t="s" s="58">
+      <c r="A22" t="s" s="40">
         <v>75</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="50"/>
+      <c r="E22" t="s" s="56">
+        <v>76</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="11"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -22900,18 +22823,18 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="48">
-        <v>76</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="52"/>
-      <c r="E23" t="s" s="58">
+      <c r="A23" t="s" s="46">
         <v>77</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="50"/>
+      <c r="E23" t="s" s="56">
+        <v>78</v>
+      </c>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="11"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -22920,18 +22843,18 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="42">
-        <v>78</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="52"/>
-      <c r="E24" t="s" s="58">
+      <c r="A24" t="s" s="40">
         <v>79</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="50"/>
+      <c r="E24" t="s" s="56">
+        <v>80</v>
+      </c>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="11"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -22940,18 +22863,18 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" ht="35.15" customHeight="1">
-      <c r="A25" t="s" s="48">
-        <v>80</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="52"/>
-      <c r="E25" t="s" s="58">
+      <c r="A25" t="s" s="46">
         <v>81</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="50"/>
+      <c r="E25" t="s" s="56">
+        <v>82</v>
+      </c>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="11"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -22960,18 +22883,18 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="42">
-        <v>82</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="52"/>
-      <c r="E26" t="s" s="58">
+      <c r="A26" t="s" s="40">
         <v>83</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="50"/>
+      <c r="E26" t="s" s="56">
+        <v>84</v>
+      </c>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="11"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -22980,18 +22903,18 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="48">
-        <v>84</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="52"/>
-      <c r="E27" t="s" s="58">
+      <c r="A27" t="s" s="46">
         <v>85</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="50"/>
+      <c r="E27" t="s" s="56">
+        <v>86</v>
+      </c>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="11"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -23000,18 +22923,18 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="42">
-        <v>86</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="52"/>
-      <c r="E28" t="s" s="58">
+      <c r="A28" t="s" s="40">
         <v>87</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="50"/>
+      <c r="E28" t="s" s="56">
+        <v>88</v>
+      </c>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="11"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -23020,18 +22943,18 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="48">
-        <v>88</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="52"/>
-      <c r="E29" t="s" s="58">
+      <c r="A29" t="s" s="46">
         <v>89</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="50"/>
+      <c r="E29" t="s" s="56">
+        <v>90</v>
+      </c>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
       <c r="I29" s="11"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -23040,18 +22963,18 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" ht="23.5" customHeight="1">
-      <c r="A30" t="s" s="42">
-        <v>90</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="52"/>
-      <c r="E30" t="s" s="58">
+      <c r="A30" t="s" s="40">
         <v>91</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="50"/>
+      <c r="E30" t="s" s="56">
+        <v>92</v>
+      </c>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="11"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -23060,18 +22983,18 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="48">
-        <v>92</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="52"/>
-      <c r="E31" t="s" s="58">
+      <c r="A31" t="s" s="46">
         <v>93</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="50"/>
+      <c r="E31" t="s" s="56">
+        <v>94</v>
+      </c>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="11"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -23080,18 +23003,18 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" ht="23.5" customHeight="1">
-      <c r="A32" t="s" s="42">
-        <v>94</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="52"/>
-      <c r="E32" t="s" s="58">
+      <c r="A32" t="s" s="40">
         <v>95</v>
       </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="56"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="50"/>
+      <c r="E32" t="s" s="56">
+        <v>96</v>
+      </c>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="11"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -23100,18 +23023,18 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" ht="23.5" customHeight="1">
-      <c r="A33" t="s" s="48">
-        <v>96</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="52"/>
-      <c r="E33" t="s" s="58">
+      <c r="A33" t="s" s="46">
         <v>97</v>
       </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="50"/>
+      <c r="E33" t="s" s="56">
+        <v>98</v>
+      </c>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
       <c r="I33" s="11"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -23120,18 +23043,18 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="42">
-        <v>98</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="52"/>
-      <c r="E34" t="s" s="58">
+      <c r="A34" t="s" s="40">
         <v>99</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="56"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="50"/>
+      <c r="E34" t="s" s="56">
+        <v>100</v>
+      </c>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="54"/>
       <c r="I34" s="11"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -23140,18 +23063,18 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="48">
-        <v>100</v>
-      </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="52"/>
-      <c r="E35" t="s" s="58">
+      <c r="A35" t="s" s="46">
         <v>101</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="56"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="50"/>
+      <c r="E35" t="s" s="56">
+        <v>102</v>
+      </c>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="54"/>
       <c r="I35" s="11"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -23160,16 +23083,16 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="52"/>
-      <c r="E36" t="s" s="58">
-        <v>102</v>
-      </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="50"/>
+      <c r="E36" t="s" s="56">
+        <v>103</v>
+      </c>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="54"/>
       <c r="I36" s="11"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -23178,18 +23101,18 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" ht="35.15" customHeight="1">
-      <c r="A37" t="s" s="39">
-        <v>103</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="52"/>
-      <c r="E37" t="s" s="58">
+      <c r="A37" t="s" s="37">
         <v>104</v>
       </c>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="56"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="50"/>
+      <c r="E37" t="s" s="56">
+        <v>105</v>
+      </c>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="54"/>
       <c r="I37" s="11"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -23198,18 +23121,18 @@
       <c r="N37" s="3"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="42">
-        <v>105</v>
-      </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="52"/>
-      <c r="E38" t="s" s="58">
+      <c r="A38" t="s" s="40">
         <v>106</v>
       </c>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="50"/>
+      <c r="E38" t="s" s="56">
+        <v>107</v>
+      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="54"/>
       <c r="I38" s="11"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -23218,18 +23141,18 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="63">
-        <v>107</v>
-      </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="52"/>
-      <c r="E39" t="s" s="58">
+      <c r="A39" t="s" s="61">
         <v>108</v>
       </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="50"/>
+      <c r="E39" t="s" s="56">
+        <v>109</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="54"/>
       <c r="I39" s="11"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -23238,18 +23161,18 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="42">
-        <v>109</v>
-      </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="52"/>
-      <c r="E40" t="s" s="58">
+      <c r="A40" t="s" s="40">
         <v>110</v>
       </c>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="50"/>
+      <c r="E40" t="s" s="56">
+        <v>111</v>
+      </c>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
       <c r="I40" s="11"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -23258,18 +23181,18 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="48">
-        <v>111</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="52"/>
-      <c r="E41" t="s" s="58">
+      <c r="A41" t="s" s="46">
         <v>112</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="50"/>
+      <c r="E41" t="s" s="56">
+        <v>113</v>
+      </c>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="11"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -23278,18 +23201,18 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="42">
-        <v>113</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="52"/>
-      <c r="E42" t="s" s="58">
+      <c r="A42" t="s" s="40">
         <v>114</v>
       </c>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="56"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="50"/>
+      <c r="E42" t="s" s="56">
+        <v>115</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="11"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -23298,18 +23221,18 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" ht="46.5" customHeight="1">
-      <c r="A43" t="s" s="48">
-        <v>115</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="52"/>
-      <c r="E43" t="s" s="58">
+      <c r="A43" t="s" s="46">
         <v>116</v>
       </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="56"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="50"/>
+      <c r="E43" t="s" s="56">
+        <v>117</v>
+      </c>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
       <c r="I43" s="11"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -23318,18 +23241,18 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="42">
-        <v>117</v>
-      </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="52"/>
-      <c r="E44" t="s" s="58">
+      <c r="A44" t="s" s="40">
         <v>118</v>
       </c>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="56"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="50"/>
+      <c r="E44" t="s" s="56">
+        <v>119</v>
+      </c>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="54"/>
       <c r="I44" s="11"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -23338,18 +23261,18 @@
       <c r="N44" s="3"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="48">
-        <v>119</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="52"/>
-      <c r="E45" t="s" s="58">
+      <c r="A45" t="s" s="46">
         <v>120</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="56"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="50"/>
+      <c r="E45" t="s" s="56">
+        <v>121</v>
+      </c>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="54"/>
       <c r="I45" s="11"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -23358,18 +23281,18 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="42">
-        <v>121</v>
-      </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="52"/>
-      <c r="E46" t="s" s="58">
+      <c r="A46" t="s" s="40">
         <v>122</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="56"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="50"/>
+      <c r="E46" t="s" s="56">
+        <v>123</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="54"/>
       <c r="I46" s="11"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -23378,18 +23301,18 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="48">
-        <v>123</v>
-      </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="52"/>
-      <c r="E47" t="s" s="58">
+      <c r="A47" t="s" s="46">
         <v>124</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="56"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="50"/>
+      <c r="E47" t="s" s="56">
+        <v>125</v>
+      </c>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="54"/>
       <c r="I47" s="11"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -23398,18 +23321,18 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" ht="35.15" customHeight="1">
-      <c r="A48" t="s" s="42">
-        <v>125</v>
-      </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="52"/>
-      <c r="E48" t="s" s="58">
+      <c r="A48" t="s" s="40">
         <v>126</v>
       </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="56"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="50"/>
+      <c r="E48" t="s" s="56">
+        <v>127</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54"/>
       <c r="I48" s="11"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -23418,18 +23341,18 @@
       <c r="N48" s="3"/>
     </row>
     <row r="49" ht="46.5" customHeight="1">
-      <c r="A49" t="s" s="48">
-        <v>127</v>
-      </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="52"/>
-      <c r="E49" t="s" s="58">
+      <c r="A49" t="s" s="46">
         <v>128</v>
       </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="56"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="50"/>
+      <c r="E49" t="s" s="56">
+        <v>129</v>
+      </c>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="54"/>
       <c r="I49" s="11"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -23438,18 +23361,18 @@
       <c r="N49" s="3"/>
     </row>
     <row r="50" ht="24.5" customHeight="1">
-      <c r="A50" t="s" s="42">
-        <v>129</v>
-      </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="52"/>
-      <c r="E50" t="s" s="58">
+      <c r="A50" t="s" s="40">
         <v>130</v>
       </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="56"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="50"/>
+      <c r="E50" t="s" s="56">
+        <v>131</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="54"/>
       <c r="I50" s="11"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -23458,18 +23381,18 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="48">
-        <v>131</v>
-      </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="52"/>
-      <c r="E51" t="s" s="58">
+      <c r="A51" t="s" s="46">
         <v>132</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="56"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="50"/>
+      <c r="E51" t="s" s="56">
+        <v>133</v>
+      </c>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="54"/>
       <c r="I51" s="11"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -23478,16 +23401,16 @@
       <c r="N51" s="3"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="60"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="52"/>
-      <c r="E52" t="s" s="58">
-        <v>133</v>
-      </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="50"/>
+      <c r="E52" t="s" s="56">
+        <v>134</v>
+      </c>
+      <c r="F52" s="52"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
       <c r="I52" s="11"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -23498,14 +23421,14 @@
     <row r="53" ht="23.5" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="52"/>
-      <c r="E53" t="s" s="58">
-        <v>134</v>
-      </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="56"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="50"/>
+      <c r="E53" t="s" s="56">
+        <v>135</v>
+      </c>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="54"/>
       <c r="I53" s="11"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -23516,14 +23439,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="52"/>
-      <c r="E54" t="s" s="58">
-        <v>135</v>
-      </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="56"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="50"/>
+      <c r="E54" t="s" s="56">
+        <v>136</v>
+      </c>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="54"/>
       <c r="I54" s="11"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -23534,14 +23457,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="52"/>
-      <c r="E55" t="s" s="58">
-        <v>136</v>
-      </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="56"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="50"/>
+      <c r="E55" t="s" s="56">
+        <v>137</v>
+      </c>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="54"/>
       <c r="I55" s="11"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -23552,14 +23475,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="52"/>
-      <c r="E56" t="s" s="58">
-        <v>137</v>
-      </c>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="56"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="50"/>
+      <c r="E56" t="s" s="56">
+        <v>138</v>
+      </c>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="54"/>
       <c r="I56" s="11"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -23570,14 +23493,14 @@
     <row r="57" ht="23.5" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="52"/>
-      <c r="E57" t="s" s="58">
-        <v>138</v>
-      </c>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="56"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="50"/>
+      <c r="E57" t="s" s="56">
+        <v>139</v>
+      </c>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="54"/>
       <c r="I57" s="11"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -23588,14 +23511,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="52"/>
-      <c r="E58" t="s" s="58">
-        <v>139</v>
-      </c>
-      <c r="F58" s="54"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="56"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="50"/>
+      <c r="E58" t="s" s="56">
+        <v>140</v>
+      </c>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="54"/>
       <c r="I58" s="11"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -23606,14 +23529,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="52"/>
-      <c r="E59" t="s" s="58">
-        <v>140</v>
-      </c>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="56"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="50"/>
+      <c r="E59" t="s" s="56">
+        <v>141</v>
+      </c>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="54"/>
       <c r="I59" s="11"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -23624,14 +23547,14 @@
     <row r="60" ht="46.5" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="52"/>
-      <c r="E60" t="s" s="58">
-        <v>141</v>
-      </c>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="56"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="50"/>
+      <c r="E60" t="s" s="56">
+        <v>142</v>
+      </c>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="54"/>
       <c r="I60" s="11"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -23642,14 +23565,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="52"/>
-      <c r="E61" t="s" s="58">
-        <v>142</v>
-      </c>
-      <c r="F61" s="54"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="56"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="50"/>
+      <c r="E61" t="s" s="56">
+        <v>143</v>
+      </c>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="54"/>
       <c r="I61" s="11"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -23660,14 +23583,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="52"/>
-      <c r="E62" t="s" s="58">
-        <v>143</v>
-      </c>
-      <c r="F62" s="54"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="56"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="50"/>
+      <c r="E62" t="s" s="56">
+        <v>144</v>
+      </c>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="54"/>
       <c r="I62" s="11"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -23678,14 +23601,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="52"/>
-      <c r="E63" t="s" s="58">
-        <v>144</v>
-      </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="56"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="50"/>
+      <c r="E63" t="s" s="56">
+        <v>145</v>
+      </c>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="54"/>
       <c r="I63" s="11"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -23696,14 +23619,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="52"/>
-      <c r="E64" t="s" s="58">
-        <v>145</v>
-      </c>
-      <c r="F64" s="54"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="56"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="50"/>
+      <c r="E64" t="s" s="56">
+        <v>146</v>
+      </c>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="54"/>
       <c r="I64" s="11"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -23714,14 +23637,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="52"/>
-      <c r="E65" t="s" s="58">
-        <v>146</v>
-      </c>
-      <c r="F65" s="54"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="56"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="50"/>
+      <c r="E65" t="s" s="56">
+        <v>147</v>
+      </c>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="54"/>
       <c r="I65" s="11"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -23732,14 +23655,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="52"/>
-      <c r="E66" t="s" s="58">
-        <v>147</v>
-      </c>
-      <c r="F66" s="54"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="56"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="50"/>
+      <c r="E66" t="s" s="56">
+        <v>148</v>
+      </c>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="54"/>
       <c r="I66" s="11"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -23750,14 +23673,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="52"/>
-      <c r="E67" t="s" s="58">
-        <v>148</v>
-      </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="56"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="50"/>
+      <c r="E67" t="s" s="56">
+        <v>149</v>
+      </c>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="54"/>
       <c r="I67" s="11"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -23768,14 +23691,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="52"/>
-      <c r="E68" t="s" s="58">
-        <v>149</v>
-      </c>
-      <c r="F68" s="54"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="56"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="50"/>
+      <c r="E68" t="s" s="56">
+        <v>150</v>
+      </c>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="54"/>
       <c r="I68" s="11"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -23786,14 +23709,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="52"/>
-      <c r="E69" t="s" s="58">
-        <v>150</v>
-      </c>
-      <c r="F69" s="54"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="56"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="50"/>
+      <c r="E69" t="s" s="56">
+        <v>151</v>
+      </c>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="54"/>
       <c r="I69" s="11"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -23804,14 +23727,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="52"/>
-      <c r="E70" t="s" s="58">
-        <v>151</v>
-      </c>
-      <c r="F70" s="54"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="56"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="50"/>
+      <c r="E70" t="s" s="56">
+        <v>152</v>
+      </c>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="54"/>
       <c r="I70" s="11"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -23822,14 +23745,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="52"/>
-      <c r="E71" t="s" s="58">
-        <v>152</v>
-      </c>
-      <c r="F71" s="54"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="50"/>
+      <c r="E71" t="s" s="56">
+        <v>153</v>
+      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
       <c r="I71" s="11"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -23840,14 +23763,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="52"/>
-      <c r="E72" t="s" s="58">
-        <v>153</v>
-      </c>
-      <c r="F72" s="54"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="56"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="50"/>
+      <c r="E72" t="s" s="56">
+        <v>154</v>
+      </c>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="54"/>
       <c r="I72" s="11"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -23858,14 +23781,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="52"/>
-      <c r="E73" t="s" s="58">
-        <v>154</v>
-      </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="56"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="50"/>
+      <c r="E73" t="s" s="56">
+        <v>155</v>
+      </c>
+      <c r="F73" s="52"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="54"/>
       <c r="I73" s="11"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -23876,14 +23799,14 @@
     <row r="74" ht="23.5" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="52"/>
-      <c r="E74" t="s" s="58">
-        <v>155</v>
-      </c>
-      <c r="F74" s="54"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="56"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="50"/>
+      <c r="E74" t="s" s="56">
+        <v>156</v>
+      </c>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="54"/>
       <c r="I74" s="11"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -23894,14 +23817,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="52"/>
-      <c r="E75" t="s" s="58">
-        <v>156</v>
-      </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="56"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="50"/>
+      <c r="E75" t="s" s="56">
+        <v>157</v>
+      </c>
+      <c r="F75" s="52"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="54"/>
       <c r="I75" s="11"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -23912,14 +23835,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="52"/>
-      <c r="E76" t="s" s="58">
-        <v>157</v>
-      </c>
-      <c r="F76" s="54"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="56"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="50"/>
+      <c r="E76" t="s" s="56">
+        <v>158</v>
+      </c>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="54"/>
       <c r="I76" s="11"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -23930,14 +23853,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="52"/>
-      <c r="E77" t="s" s="58">
-        <v>158</v>
-      </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="55"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="50"/>
+      <c r="E77" t="s" s="56">
+        <v>159</v>
+      </c>
+      <c r="F77" s="62"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="53"/>
       <c r="I77" s="11"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -23948,14 +23871,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="52"/>
-      <c r="E78" t="s" s="58">
-        <v>159</v>
-      </c>
-      <c r="F78" s="54"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="56"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="50"/>
+      <c r="E78" t="s" s="56">
+        <v>160</v>
+      </c>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="54"/>
       <c r="I78" s="11"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -23966,14 +23889,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="52"/>
-      <c r="E79" t="s" s="58">
-        <v>160</v>
-      </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="56"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="50"/>
+      <c r="E79" t="s" s="56">
+        <v>161</v>
+      </c>
+      <c r="F79" s="52"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="54"/>
       <c r="I79" s="11"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -23984,14 +23907,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="52"/>
-      <c r="E80" t="s" s="58">
-        <v>161</v>
-      </c>
-      <c r="F80" s="54"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="56"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="50"/>
+      <c r="E80" t="s" s="56">
+        <v>162</v>
+      </c>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="54"/>
       <c r="I80" s="11"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -24002,14 +23925,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="52"/>
-      <c r="E81" t="s" s="58">
-        <v>162</v>
-      </c>
-      <c r="F81" s="54"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="56"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="50"/>
+      <c r="E81" t="s" s="56">
+        <v>163</v>
+      </c>
+      <c r="F81" s="52"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="54"/>
       <c r="I81" s="11"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -24020,14 +23943,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="52"/>
-      <c r="E82" t="s" s="58">
-        <v>163</v>
-      </c>
-      <c r="F82" s="54"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="56"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="50"/>
+      <c r="E82" t="s" s="56">
+        <v>164</v>
+      </c>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="54"/>
       <c r="I82" s="11"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -24038,14 +23961,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="52"/>
-      <c r="E83" t="s" s="58">
-        <v>164</v>
-      </c>
-      <c r="F83" s="54"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="56"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="50"/>
+      <c r="E83" t="s" s="56">
+        <v>165</v>
+      </c>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="54"/>
       <c r="I83" s="11"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -24056,14 +23979,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="52"/>
-      <c r="E84" t="s" s="58">
-        <v>165</v>
-      </c>
-      <c r="F84" s="54"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="56"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="50"/>
+      <c r="E84" t="s" s="56">
+        <v>166</v>
+      </c>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="54"/>
       <c r="I84" s="11"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -24074,14 +23997,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="52"/>
-      <c r="E85" t="s" s="58">
-        <v>166</v>
-      </c>
-      <c r="F85" s="54"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="56"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="50"/>
+      <c r="E85" t="s" s="56">
+        <v>167</v>
+      </c>
+      <c r="F85" s="52"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="54"/>
       <c r="I85" s="11"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -24092,14 +24015,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="52"/>
-      <c r="E86" t="s" s="58">
-        <v>167</v>
-      </c>
-      <c r="F86" s="54"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="56"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="50"/>
+      <c r="E86" t="s" s="56">
+        <v>168</v>
+      </c>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="54"/>
       <c r="I86" s="11"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -24110,14 +24033,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="52"/>
-      <c r="E87" t="s" s="58">
-        <v>168</v>
-      </c>
-      <c r="F87" s="54"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="56"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="50"/>
+      <c r="E87" t="s" s="56">
+        <v>169</v>
+      </c>
+      <c r="F87" s="52"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="54"/>
       <c r="I87" s="11"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -24128,14 +24051,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="52"/>
-      <c r="E88" t="s" s="58">
-        <v>169</v>
-      </c>
-      <c r="F88" s="54"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="56"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="50"/>
+      <c r="E88" t="s" s="56">
+        <v>170</v>
+      </c>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="54"/>
       <c r="I88" s="11"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -24146,14 +24069,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="52"/>
-      <c r="E89" t="s" s="58">
-        <v>170</v>
-      </c>
-      <c r="F89" s="54"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="56"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="50"/>
+      <c r="E89" t="s" s="56">
+        <v>171</v>
+      </c>
+      <c r="F89" s="52"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="54"/>
       <c r="I89" s="11"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -24164,14 +24087,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="52"/>
-      <c r="E90" t="s" s="58">
-        <v>171</v>
-      </c>
-      <c r="F90" s="54"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="56"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="50"/>
+      <c r="E90" t="s" s="56">
+        <v>172</v>
+      </c>
+      <c r="F90" s="52"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="54"/>
       <c r="I90" s="11"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -24182,14 +24105,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="52"/>
-      <c r="E91" t="s" s="58">
-        <v>172</v>
-      </c>
-      <c r="F91" s="54"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="56"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="50"/>
+      <c r="E91" t="s" s="56">
+        <v>173</v>
+      </c>
+      <c r="F91" s="52"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="54"/>
       <c r="I91" s="11"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -24200,14 +24123,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="52"/>
-      <c r="E92" t="s" s="58">
-        <v>173</v>
-      </c>
-      <c r="F92" s="54"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="56"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="50"/>
+      <c r="E92" t="s" s="56">
+        <v>174</v>
+      </c>
+      <c r="F92" s="52"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="54"/>
       <c r="I92" s="11"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -24218,14 +24141,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="52"/>
-      <c r="E93" t="s" s="58">
-        <v>174</v>
-      </c>
-      <c r="F93" s="54"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="50"/>
+      <c r="E93" t="s" s="56">
+        <v>175</v>
+      </c>
+      <c r="F93" s="52"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
       <c r="I93" s="11"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -24236,14 +24159,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="52"/>
-      <c r="E94" t="s" s="58">
-        <v>175</v>
-      </c>
-      <c r="F94" s="54"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="56"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="50"/>
+      <c r="E94" t="s" s="56">
+        <v>176</v>
+      </c>
+      <c r="F94" s="52"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="54"/>
       <c r="I94" s="11"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -24254,14 +24177,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="52"/>
-      <c r="E95" t="s" s="58">
-        <v>176</v>
-      </c>
-      <c r="F95" s="54"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="56"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="50"/>
+      <c r="E95" t="s" s="56">
+        <v>177</v>
+      </c>
+      <c r="F95" s="52"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="54"/>
       <c r="I95" s="11"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -24272,14 +24195,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="52"/>
-      <c r="E96" t="s" s="58">
-        <v>177</v>
-      </c>
-      <c r="F96" s="54"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="50"/>
+      <c r="E96" t="s" s="56">
+        <v>178</v>
+      </c>
+      <c r="F96" s="52"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="54"/>
       <c r="I96" s="11"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
@@ -24290,14 +24213,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="52"/>
-      <c r="E97" t="s" s="58">
-        <v>178</v>
-      </c>
-      <c r="F97" s="54"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="56"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="50"/>
+      <c r="E97" t="s" s="56">
+        <v>179</v>
+      </c>
+      <c r="F97" s="52"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="54"/>
       <c r="I97" s="11"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -24308,14 +24231,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="52"/>
-      <c r="E98" t="s" s="58">
-        <v>179</v>
-      </c>
-      <c r="F98" s="54"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="50"/>
+      <c r="E98" t="s" s="56">
+        <v>180</v>
+      </c>
+      <c r="F98" s="52"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="54"/>
       <c r="I98" s="11"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -24326,14 +24249,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="52"/>
-      <c r="E99" t="s" s="58">
-        <v>180</v>
-      </c>
-      <c r="F99" s="54"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="56"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="50"/>
+      <c r="E99" t="s" s="56">
+        <v>181</v>
+      </c>
+      <c r="F99" s="52"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="54"/>
       <c r="I99" s="11"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -24344,14 +24267,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="52"/>
-      <c r="E100" t="s" s="58">
-        <v>181</v>
-      </c>
-      <c r="F100" s="54"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="50"/>
+      <c r="E100" t="s" s="56">
+        <v>182</v>
+      </c>
+      <c r="F100" s="52"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="54"/>
       <c r="I100" s="11"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -24362,14 +24285,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="52"/>
-      <c r="E101" t="s" s="58">
-        <v>182</v>
-      </c>
-      <c r="F101" s="54"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="56"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="50"/>
+      <c r="E101" t="s" s="56">
+        <v>183</v>
+      </c>
+      <c r="F101" s="52"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="54"/>
       <c r="I101" s="11"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -24380,14 +24303,14 @@
     <row r="102" ht="23.5" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="52"/>
-      <c r="E102" t="s" s="58">
-        <v>183</v>
-      </c>
-      <c r="F102" s="54"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="56"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="50"/>
+      <c r="E102" t="s" s="56">
+        <v>184</v>
+      </c>
+      <c r="F102" s="52"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
       <c r="I102" s="11"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -24398,14 +24321,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="52"/>
-      <c r="E103" t="s" s="58">
-        <v>184</v>
-      </c>
-      <c r="F103" s="54"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="56"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="50"/>
+      <c r="E103" t="s" s="56">
+        <v>185</v>
+      </c>
+      <c r="F103" s="52"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="54"/>
       <c r="I103" s="11"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -24416,14 +24339,14 @@
     <row r="104" ht="23.5" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="52"/>
-      <c r="E104" t="s" s="58">
-        <v>185</v>
-      </c>
-      <c r="F104" s="54"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="50"/>
+      <c r="E104" t="s" s="56">
+        <v>186</v>
+      </c>
+      <c r="F104" s="52"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="54"/>
       <c r="I104" s="11"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
@@ -24434,14 +24357,14 @@
     <row r="105" ht="23.5" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="52"/>
-      <c r="E105" t="s" s="58">
-        <v>186</v>
-      </c>
-      <c r="F105" s="54"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="56"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="50"/>
+      <c r="E105" t="s" s="56">
+        <v>187</v>
+      </c>
+      <c r="F105" s="52"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="54"/>
       <c r="I105" s="11"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
@@ -24452,14 +24375,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="52"/>
-      <c r="E106" t="s" s="58">
-        <v>187</v>
-      </c>
-      <c r="F106" s="54"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="50"/>
+      <c r="E106" t="s" s="56">
+        <v>188</v>
+      </c>
+      <c r="F106" s="52"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="54"/>
       <c r="I106" s="11"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
@@ -24470,14 +24393,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="52"/>
-      <c r="E107" t="s" s="58">
-        <v>188</v>
-      </c>
-      <c r="F107" s="54"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="56"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="50"/>
+      <c r="E107" t="s" s="56">
+        <v>189</v>
+      </c>
+      <c r="F107" s="52"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="54"/>
       <c r="I107" s="11"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -24488,14 +24411,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="52"/>
-      <c r="E108" t="s" s="58">
-        <v>189</v>
-      </c>
-      <c r="F108" s="54"/>
-      <c r="G108" s="56"/>
-      <c r="H108" s="55"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="50"/>
+      <c r="E108" t="s" s="56">
+        <v>190</v>
+      </c>
+      <c r="F108" s="52"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="53"/>
       <c r="I108" s="11"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -24506,14 +24429,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="52"/>
-      <c r="E109" t="s" s="58">
-        <v>190</v>
-      </c>
-      <c r="F109" s="54"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="56"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="50"/>
+      <c r="E109" t="s" s="56">
+        <v>191</v>
+      </c>
+      <c r="F109" s="52"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="54"/>
       <c r="I109" s="11"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -24524,14 +24447,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="52"/>
-      <c r="E110" t="s" s="58">
-        <v>191</v>
-      </c>
-      <c r="F110" s="54"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="55"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="50"/>
+      <c r="E110" t="s" s="56">
+        <v>192</v>
+      </c>
+      <c r="F110" s="52"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="53"/>
       <c r="I110" s="11"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -24542,14 +24465,14 @@
     <row r="111" ht="23.5" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="52"/>
-      <c r="E111" t="s" s="58">
-        <v>192</v>
-      </c>
-      <c r="F111" s="54"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="50"/>
+      <c r="E111" t="s" s="56">
+        <v>193</v>
+      </c>
+      <c r="F111" s="52"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
       <c r="I111" s="11"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -24560,14 +24483,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="52"/>
-      <c r="E112" t="s" s="58">
-        <v>193</v>
-      </c>
-      <c r="F112" s="54"/>
-      <c r="G112" s="55"/>
-      <c r="H112" s="56"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="50"/>
+      <c r="E112" t="s" s="56">
+        <v>194</v>
+      </c>
+      <c r="F112" s="52"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="54"/>
       <c r="I112" s="11"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -24578,14 +24501,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="52"/>
-      <c r="E113" t="s" s="58">
-        <v>194</v>
-      </c>
-      <c r="F113" s="54"/>
-      <c r="G113" s="55"/>
-      <c r="H113" s="56"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="50"/>
+      <c r="E113" t="s" s="56">
+        <v>195</v>
+      </c>
+      <c r="F113" s="52"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="54"/>
       <c r="I113" s="11"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -24596,14 +24519,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="52"/>
-      <c r="E114" t="s" s="58">
-        <v>195</v>
-      </c>
-      <c r="F114" s="54"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="56"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="50"/>
+      <c r="E114" t="s" s="56">
+        <v>196</v>
+      </c>
+      <c r="F114" s="52"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="54"/>
       <c r="I114" s="11"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -24614,14 +24537,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="52"/>
-      <c r="E115" t="s" s="58">
-        <v>196</v>
-      </c>
-      <c r="F115" s="54"/>
-      <c r="G115" s="56"/>
-      <c r="H115" s="56"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="50"/>
+      <c r="E115" t="s" s="56">
+        <v>197</v>
+      </c>
+      <c r="F115" s="52"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="54"/>
       <c r="I115" s="11"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -24632,14 +24555,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="52"/>
-      <c r="E116" t="s" s="58">
-        <v>197</v>
-      </c>
-      <c r="F116" s="54"/>
-      <c r="G116" s="55"/>
-      <c r="H116" s="56"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="50"/>
+      <c r="E116" t="s" s="56">
+        <v>198</v>
+      </c>
+      <c r="F116" s="52"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="54"/>
       <c r="I116" s="11"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -24650,14 +24573,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="52"/>
-      <c r="E117" t="s" s="58">
-        <v>198</v>
-      </c>
-      <c r="F117" s="54"/>
-      <c r="G117" s="56"/>
-      <c r="H117" s="55"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="50"/>
+      <c r="E117" t="s" s="56">
+        <v>199</v>
+      </c>
+      <c r="F117" s="52"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="53"/>
       <c r="I117" s="11"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -24668,14 +24591,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="52"/>
-      <c r="E118" t="s" s="58">
-        <v>199</v>
-      </c>
-      <c r="F118" s="54"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="56"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="50"/>
+      <c r="E118" t="s" s="56">
+        <v>200</v>
+      </c>
+      <c r="F118" s="52"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="54"/>
       <c r="I118" s="11"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -24686,14 +24609,14 @@
     <row r="119" ht="23.5" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="52"/>
-      <c r="E119" t="s" s="58">
-        <v>200</v>
-      </c>
-      <c r="F119" s="54"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="56"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="50"/>
+      <c r="E119" t="s" s="56">
+        <v>201</v>
+      </c>
+      <c r="F119" s="52"/>
+      <c r="G119" s="53"/>
+      <c r="H119" s="54"/>
       <c r="I119" s="11"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -24704,14 +24627,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="52"/>
-      <c r="E120" t="s" s="58">
-        <v>201</v>
-      </c>
-      <c r="F120" s="54"/>
-      <c r="G120" s="55"/>
-      <c r="H120" s="56"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="50"/>
+      <c r="E120" t="s" s="56">
+        <v>202</v>
+      </c>
+      <c r="F120" s="52"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="54"/>
       <c r="I120" s="11"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -24722,14 +24645,14 @@
     <row r="121" ht="23.5" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="52"/>
-      <c r="E121" t="s" s="58">
-        <v>202</v>
-      </c>
-      <c r="F121" s="54"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="56"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="50"/>
+      <c r="E121" t="s" s="56">
+        <v>203</v>
+      </c>
+      <c r="F121" s="52"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="54"/>
       <c r="I121" s="11"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -24740,14 +24663,14 @@
     <row r="122" ht="35.15" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="52"/>
-      <c r="E122" t="s" s="58">
-        <v>203</v>
-      </c>
-      <c r="F122" s="54"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="56"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="50"/>
+      <c r="E122" t="s" s="56">
+        <v>204</v>
+      </c>
+      <c r="F122" s="52"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="54"/>
       <c r="I122" s="11"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -24758,14 +24681,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="52"/>
-      <c r="E123" t="s" s="58">
-        <v>204</v>
-      </c>
-      <c r="F123" s="54"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="56"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="50"/>
+      <c r="E123" t="s" s="56">
+        <v>205</v>
+      </c>
+      <c r="F123" s="52"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="54"/>
       <c r="I123" s="11"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -24776,14 +24699,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="52"/>
-      <c r="E124" t="s" s="58">
-        <v>205</v>
-      </c>
-      <c r="F124" s="54"/>
-      <c r="G124" s="56"/>
-      <c r="H124" s="56"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="50"/>
+      <c r="E124" t="s" s="56">
+        <v>206</v>
+      </c>
+      <c r="F124" s="52"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
       <c r="I124" s="11"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -24794,14 +24717,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="52"/>
-      <c r="E125" t="s" s="58">
-        <v>206</v>
-      </c>
-      <c r="F125" s="54"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="56"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="50"/>
+      <c r="E125" t="s" s="56">
+        <v>207</v>
+      </c>
+      <c r="F125" s="52"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="54"/>
       <c r="I125" s="11"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -24812,14 +24735,14 @@
     <row r="126" ht="23.5" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="52"/>
-      <c r="E126" t="s" s="58">
-        <v>207</v>
-      </c>
-      <c r="F126" s="54"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="56"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="50"/>
+      <c r="E126" t="s" s="56">
+        <v>208</v>
+      </c>
+      <c r="F126" s="52"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="54"/>
       <c r="I126" s="11"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -24830,14 +24753,14 @@
     <row r="127" ht="23.5" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="52"/>
-      <c r="E127" t="s" s="58">
-        <v>208</v>
-      </c>
-      <c r="F127" s="54"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="56"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="50"/>
+      <c r="E127" t="s" s="56">
+        <v>209</v>
+      </c>
+      <c r="F127" s="52"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="54"/>
       <c r="I127" s="11"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -24848,14 +24771,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="52"/>
-      <c r="E128" t="s" s="58">
-        <v>209</v>
-      </c>
-      <c r="F128" s="54"/>
-      <c r="G128" s="55"/>
-      <c r="H128" s="56"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="50"/>
+      <c r="E128" t="s" s="56">
+        <v>210</v>
+      </c>
+      <c r="F128" s="52"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="54"/>
       <c r="I128" s="11"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -24866,14 +24789,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="52"/>
-      <c r="E129" t="s" s="58">
-        <v>210</v>
-      </c>
-      <c r="F129" s="54"/>
-      <c r="G129" s="55"/>
-      <c r="H129" s="56"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="50"/>
+      <c r="E129" t="s" s="56">
+        <v>211</v>
+      </c>
+      <c r="F129" s="52"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="54"/>
       <c r="I129" s="11"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -24884,14 +24807,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="52"/>
-      <c r="E130" t="s" s="58">
-        <v>211</v>
-      </c>
-      <c r="F130" s="54"/>
-      <c r="G130" s="55"/>
-      <c r="H130" s="56"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="50"/>
+      <c r="E130" t="s" s="56">
+        <v>212</v>
+      </c>
+      <c r="F130" s="52"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="54"/>
       <c r="I130" s="11"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -24902,14 +24825,14 @@
     <row r="131" ht="23.5" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="52"/>
-      <c r="E131" t="s" s="58">
-        <v>212</v>
-      </c>
-      <c r="F131" s="54"/>
-      <c r="G131" s="55"/>
-      <c r="H131" s="56"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="50"/>
+      <c r="E131" t="s" s="56">
+        <v>213</v>
+      </c>
+      <c r="F131" s="52"/>
+      <c r="G131" s="53"/>
+      <c r="H131" s="54"/>
       <c r="I131" s="11"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -24920,14 +24843,14 @@
     <row r="132" ht="23.5" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="52"/>
-      <c r="E132" t="s" s="58">
-        <v>213</v>
-      </c>
-      <c r="F132" s="54"/>
-      <c r="G132" s="55"/>
-      <c r="H132" s="56"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="50"/>
+      <c r="E132" t="s" s="56">
+        <v>214</v>
+      </c>
+      <c r="F132" s="52"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="54"/>
       <c r="I132" s="11"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -24938,14 +24861,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="52"/>
-      <c r="E133" t="s" s="58">
-        <v>214</v>
-      </c>
-      <c r="F133" s="54"/>
-      <c r="G133" s="55"/>
-      <c r="H133" s="56"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="50"/>
+      <c r="E133" t="s" s="56">
+        <v>215</v>
+      </c>
+      <c r="F133" s="52"/>
+      <c r="G133" s="53"/>
+      <c r="H133" s="54"/>
       <c r="I133" s="11"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -24956,14 +24879,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="52"/>
-      <c r="E134" t="s" s="58">
-        <v>215</v>
-      </c>
-      <c r="F134" s="54"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="56"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="50"/>
+      <c r="E134" t="s" s="56">
+        <v>216</v>
+      </c>
+      <c r="F134" s="52"/>
+      <c r="G134" s="53"/>
+      <c r="H134" s="54"/>
       <c r="I134" s="11"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -24974,14 +24897,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="52"/>
-      <c r="E135" t="s" s="58">
-        <v>216</v>
-      </c>
-      <c r="F135" s="54"/>
-      <c r="G135" s="55"/>
-      <c r="H135" s="56"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="50"/>
+      <c r="E135" t="s" s="56">
+        <v>217</v>
+      </c>
+      <c r="F135" s="52"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="54"/>
       <c r="I135" s="11"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -24992,14 +24915,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="52"/>
-      <c r="E136" t="s" s="58">
-        <v>217</v>
-      </c>
-      <c r="F136" s="54"/>
-      <c r="G136" s="56"/>
-      <c r="H136" s="56"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="50"/>
+      <c r="E136" t="s" s="56">
+        <v>218</v>
+      </c>
+      <c r="F136" s="52"/>
+      <c r="G136" s="54"/>
+      <c r="H136" s="54"/>
       <c r="I136" s="11"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -25010,14 +24933,14 @@
     <row r="137" ht="23.5" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="52"/>
-      <c r="E137" t="s" s="58">
-        <v>218</v>
-      </c>
-      <c r="F137" s="54"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="56"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="50"/>
+      <c r="E137" t="s" s="56">
+        <v>219</v>
+      </c>
+      <c r="F137" s="52"/>
+      <c r="G137" s="53"/>
+      <c r="H137" s="54"/>
       <c r="I137" s="11"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -25028,14 +24951,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="52"/>
-      <c r="E138" t="s" s="58">
-        <v>219</v>
-      </c>
-      <c r="F138" s="54"/>
-      <c r="G138" s="55"/>
-      <c r="H138" s="56"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="50"/>
+      <c r="E138" t="s" s="56">
+        <v>220</v>
+      </c>
+      <c r="F138" s="52"/>
+      <c r="G138" s="53"/>
+      <c r="H138" s="54"/>
       <c r="I138" s="11"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -25046,14 +24969,14 @@
     <row r="139" ht="23.5" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="52"/>
-      <c r="E139" t="s" s="58">
-        <v>220</v>
-      </c>
-      <c r="F139" s="54"/>
-      <c r="G139" s="55"/>
-      <c r="H139" s="56"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="50"/>
+      <c r="E139" t="s" s="56">
+        <v>221</v>
+      </c>
+      <c r="F139" s="52"/>
+      <c r="G139" s="53"/>
+      <c r="H139" s="54"/>
       <c r="I139" s="11"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -25064,14 +24987,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="52"/>
-      <c r="E140" t="s" s="58">
-        <v>221</v>
-      </c>
-      <c r="F140" s="54"/>
-      <c r="G140" s="55"/>
-      <c r="H140" s="56"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="50"/>
+      <c r="E140" t="s" s="56">
+        <v>222</v>
+      </c>
+      <c r="F140" s="52"/>
+      <c r="G140" s="53"/>
+      <c r="H140" s="54"/>
       <c r="I140" s="11"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -25082,14 +25005,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="43"/>
-      <c r="D141" s="52"/>
-      <c r="E141" t="s" s="58">
-        <v>222</v>
-      </c>
-      <c r="F141" s="54"/>
-      <c r="G141" s="55"/>
-      <c r="H141" s="56"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="50"/>
+      <c r="E141" t="s" s="56">
+        <v>223</v>
+      </c>
+      <c r="F141" s="52"/>
+      <c r="G141" s="53"/>
+      <c r="H141" s="54"/>
       <c r="I141" s="11"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -25100,14 +25023,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="52"/>
-      <c r="E142" t="s" s="58">
-        <v>223</v>
-      </c>
-      <c r="F142" s="54"/>
-      <c r="G142" s="55"/>
-      <c r="H142" s="56"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="50"/>
+      <c r="E142" t="s" s="56">
+        <v>224</v>
+      </c>
+      <c r="F142" s="52"/>
+      <c r="G142" s="53"/>
+      <c r="H142" s="54"/>
       <c r="I142" s="11"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -25118,14 +25041,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="52"/>
-      <c r="E143" t="s" s="58">
-        <v>224</v>
-      </c>
-      <c r="F143" s="54"/>
-      <c r="G143" s="55"/>
-      <c r="H143" s="56"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="50"/>
+      <c r="E143" t="s" s="56">
+        <v>225</v>
+      </c>
+      <c r="F143" s="52"/>
+      <c r="G143" s="53"/>
+      <c r="H143" s="54"/>
       <c r="I143" s="11"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -25136,14 +25059,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="52"/>
-      <c r="E144" t="s" s="58">
-        <v>225</v>
-      </c>
-      <c r="F144" s="54"/>
-      <c r="G144" s="55"/>
-      <c r="H144" s="56"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="50"/>
+      <c r="E144" t="s" s="56">
+        <v>226</v>
+      </c>
+      <c r="F144" s="52"/>
+      <c r="G144" s="53"/>
+      <c r="H144" s="54"/>
       <c r="I144" s="11"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -25154,14 +25077,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="52"/>
-      <c r="E145" t="s" s="58">
-        <v>226</v>
-      </c>
-      <c r="F145" s="54"/>
-      <c r="G145" s="55"/>
-      <c r="H145" s="56"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="50"/>
+      <c r="E145" t="s" s="56">
+        <v>227</v>
+      </c>
+      <c r="F145" s="52"/>
+      <c r="G145" s="53"/>
+      <c r="H145" s="54"/>
       <c r="I145" s="11"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -25172,14 +25095,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="43"/>
-      <c r="D146" s="52"/>
-      <c r="E146" t="s" s="58">
-        <v>227</v>
-      </c>
-      <c r="F146" s="54"/>
-      <c r="G146" s="55"/>
-      <c r="H146" s="56"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="50"/>
+      <c r="E146" t="s" s="56">
+        <v>228</v>
+      </c>
+      <c r="F146" s="52"/>
+      <c r="G146" s="53"/>
+      <c r="H146" s="54"/>
       <c r="I146" s="11"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -25190,14 +25113,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="43"/>
-      <c r="D147" s="52"/>
-      <c r="E147" t="s" s="58">
-        <v>228</v>
-      </c>
-      <c r="F147" s="54"/>
-      <c r="G147" s="55"/>
-      <c r="H147" s="56"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="50"/>
+      <c r="E147" t="s" s="56">
+        <v>229</v>
+      </c>
+      <c r="F147" s="52"/>
+      <c r="G147" s="53"/>
+      <c r="H147" s="54"/>
       <c r="I147" s="11"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -25208,14 +25131,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
-      <c r="C148" s="43"/>
-      <c r="D148" s="52"/>
-      <c r="E148" t="s" s="58">
-        <v>229</v>
-      </c>
-      <c r="F148" s="54"/>
-      <c r="G148" s="55"/>
-      <c r="H148" s="56"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="50"/>
+      <c r="E148" t="s" s="56">
+        <v>230</v>
+      </c>
+      <c r="F148" s="52"/>
+      <c r="G148" s="53"/>
+      <c r="H148" s="54"/>
       <c r="I148" s="11"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -25226,14 +25149,14 @@
     <row r="149" ht="23.5" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="43"/>
-      <c r="D149" s="52"/>
-      <c r="E149" t="s" s="58">
-        <v>230</v>
-      </c>
-      <c r="F149" s="54"/>
-      <c r="G149" s="56"/>
-      <c r="H149" s="56"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="50"/>
+      <c r="E149" t="s" s="56">
+        <v>231</v>
+      </c>
+      <c r="F149" s="52"/>
+      <c r="G149" s="54"/>
+      <c r="H149" s="54"/>
       <c r="I149" s="11"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -25244,14 +25167,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="52"/>
-      <c r="E150" t="s" s="58">
-        <v>231</v>
-      </c>
-      <c r="F150" s="54"/>
-      <c r="G150" s="56"/>
-      <c r="H150" s="56"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="50"/>
+      <c r="E150" t="s" s="56">
+        <v>232</v>
+      </c>
+      <c r="F150" s="52"/>
+      <c r="G150" s="54"/>
+      <c r="H150" s="54"/>
       <c r="I150" s="11"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -25262,14 +25185,14 @@
     <row r="151" ht="46.5" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="43"/>
-      <c r="D151" s="52"/>
-      <c r="E151" t="s" s="58">
-        <v>232</v>
-      </c>
-      <c r="F151" s="54"/>
-      <c r="G151" s="56"/>
-      <c r="H151" s="56"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="50"/>
+      <c r="E151" t="s" s="56">
+        <v>233</v>
+      </c>
+      <c r="F151" s="52"/>
+      <c r="G151" s="54"/>
+      <c r="H151" s="54"/>
       <c r="I151" s="11"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -25280,14 +25203,14 @@
     <row r="152" ht="24.5" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="43"/>
-      <c r="D152" s="52"/>
-      <c r="E152" t="s" s="58">
-        <v>233</v>
-      </c>
-      <c r="F152" s="54"/>
-      <c r="G152" s="55"/>
-      <c r="H152" s="56"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="50"/>
+      <c r="E152" t="s" s="56">
+        <v>234</v>
+      </c>
+      <c r="F152" s="52"/>
+      <c r="G152" s="53"/>
+      <c r="H152" s="54"/>
       <c r="I152" s="11"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -25298,14 +25221,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="43"/>
-      <c r="D153" s="52"/>
-      <c r="E153" t="s" s="58">
-        <v>234</v>
-      </c>
-      <c r="F153" s="54"/>
-      <c r="G153" s="56"/>
-      <c r="H153" s="56"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="50"/>
+      <c r="E153" t="s" s="56">
+        <v>235</v>
+      </c>
+      <c r="F153" s="52"/>
+      <c r="G153" s="54"/>
+      <c r="H153" s="54"/>
       <c r="I153" s="11"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -25316,14 +25239,14 @@
     <row r="154" ht="35.15" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="43"/>
-      <c r="D154" s="52"/>
-      <c r="E154" t="s" s="58">
-        <v>235</v>
-      </c>
-      <c r="F154" s="54"/>
-      <c r="G154" s="56"/>
-      <c r="H154" s="56"/>
+      <c r="C154" s="41"/>
+      <c r="D154" s="50"/>
+      <c r="E154" t="s" s="56">
+        <v>236</v>
+      </c>
+      <c r="F154" s="52"/>
+      <c r="G154" s="54"/>
+      <c r="H154" s="54"/>
       <c r="I154" s="11"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -25334,14 +25257,14 @@
     <row r="155" ht="23.5" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="43"/>
-      <c r="D155" s="52"/>
-      <c r="E155" t="s" s="58">
-        <v>236</v>
-      </c>
-      <c r="F155" s="54"/>
-      <c r="G155" s="55"/>
-      <c r="H155" s="56"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="50"/>
+      <c r="E155" t="s" s="56">
+        <v>237</v>
+      </c>
+      <c r="F155" s="52"/>
+      <c r="G155" s="53"/>
+      <c r="H155" s="54"/>
       <c r="I155" s="11"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
@@ -25352,14 +25275,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="43"/>
-      <c r="D156" s="52"/>
-      <c r="E156" t="s" s="58">
-        <v>237</v>
-      </c>
-      <c r="F156" s="54"/>
-      <c r="G156" s="55"/>
-      <c r="H156" s="56"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="50"/>
+      <c r="E156" t="s" s="56">
+        <v>238</v>
+      </c>
+      <c r="F156" s="52"/>
+      <c r="G156" s="53"/>
+      <c r="H156" s="54"/>
       <c r="I156" s="11"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -25370,14 +25293,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
-      <c r="C157" s="43"/>
-      <c r="D157" s="52"/>
-      <c r="E157" t="s" s="58">
-        <v>238</v>
-      </c>
-      <c r="F157" s="54"/>
-      <c r="G157" s="55"/>
-      <c r="H157" s="56"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="50"/>
+      <c r="E157" t="s" s="56">
+        <v>239</v>
+      </c>
+      <c r="F157" s="52"/>
+      <c r="G157" s="53"/>
+      <c r="H157" s="54"/>
       <c r="I157" s="11"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -25388,14 +25311,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="43"/>
-      <c r="D158" s="52"/>
-      <c r="E158" t="s" s="58">
-        <v>239</v>
-      </c>
-      <c r="F158" s="54"/>
-      <c r="G158" s="56"/>
-      <c r="H158" s="56"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="50"/>
+      <c r="E158" t="s" s="56">
+        <v>240</v>
+      </c>
+      <c r="F158" s="52"/>
+      <c r="G158" s="54"/>
+      <c r="H158" s="54"/>
       <c r="I158" s="11"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -25406,14 +25329,14 @@
     <row r="159" ht="23.5" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="43"/>
-      <c r="D159" s="52"/>
-      <c r="E159" t="s" s="58">
-        <v>240</v>
-      </c>
-      <c r="F159" s="54"/>
-      <c r="G159" s="55"/>
-      <c r="H159" s="56"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="50"/>
+      <c r="E159" t="s" s="56">
+        <v>241</v>
+      </c>
+      <c r="F159" s="52"/>
+      <c r="G159" s="53"/>
+      <c r="H159" s="54"/>
       <c r="I159" s="11"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -25424,14 +25347,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
-      <c r="C160" s="43"/>
-      <c r="D160" s="52"/>
-      <c r="E160" t="s" s="58">
-        <v>241</v>
-      </c>
-      <c r="F160" s="54"/>
-      <c r="G160" s="56"/>
-      <c r="H160" s="55"/>
+      <c r="C160" s="41"/>
+      <c r="D160" s="50"/>
+      <c r="E160" t="s" s="56">
+        <v>242</v>
+      </c>
+      <c r="F160" s="52"/>
+      <c r="G160" s="54"/>
+      <c r="H160" s="53"/>
       <c r="I160" s="11"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -25442,14 +25365,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="43"/>
-      <c r="D161" s="52"/>
-      <c r="E161" t="s" s="58">
-        <v>242</v>
-      </c>
-      <c r="F161" s="54"/>
-      <c r="G161" s="55"/>
-      <c r="H161" s="56"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="50"/>
+      <c r="E161" t="s" s="56">
+        <v>243</v>
+      </c>
+      <c r="F161" s="52"/>
+      <c r="G161" s="53"/>
+      <c r="H161" s="54"/>
       <c r="I161" s="11"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -25460,14 +25383,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="43"/>
-      <c r="D162" s="52"/>
-      <c r="E162" t="s" s="58">
-        <v>243</v>
-      </c>
-      <c r="F162" s="54"/>
-      <c r="G162" s="55"/>
-      <c r="H162" s="56"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="50"/>
+      <c r="E162" t="s" s="56">
+        <v>244</v>
+      </c>
+      <c r="F162" s="52"/>
+      <c r="G162" s="53"/>
+      <c r="H162" s="54"/>
       <c r="I162" s="11"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
@@ -25478,14 +25401,14 @@
     <row r="163" ht="23.5" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="43"/>
-      <c r="D163" s="52"/>
-      <c r="E163" t="s" s="58">
-        <v>244</v>
-      </c>
-      <c r="F163" s="54"/>
-      <c r="G163" s="55"/>
-      <c r="H163" s="56"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="50"/>
+      <c r="E163" t="s" s="56">
+        <v>245</v>
+      </c>
+      <c r="F163" s="52"/>
+      <c r="G163" s="53"/>
+      <c r="H163" s="54"/>
       <c r="I163" s="11"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -25496,14 +25419,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="43"/>
-      <c r="D164" s="52"/>
-      <c r="E164" t="s" s="58">
-        <v>245</v>
-      </c>
-      <c r="F164" s="54"/>
-      <c r="G164" s="55"/>
-      <c r="H164" s="56"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="50"/>
+      <c r="E164" t="s" s="56">
+        <v>246</v>
+      </c>
+      <c r="F164" s="52"/>
+      <c r="G164" s="53"/>
+      <c r="H164" s="54"/>
       <c r="I164" s="11"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
@@ -25514,14 +25437,14 @@
     <row r="165" ht="23.5" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="43"/>
-      <c r="D165" s="52"/>
-      <c r="E165" t="s" s="58">
-        <v>246</v>
-      </c>
-      <c r="F165" s="54"/>
-      <c r="G165" s="55"/>
-      <c r="H165" s="56"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="50"/>
+      <c r="E165" t="s" s="56">
+        <v>247</v>
+      </c>
+      <c r="F165" s="52"/>
+      <c r="G165" s="53"/>
+      <c r="H165" s="54"/>
       <c r="I165" s="11"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -25532,14 +25455,14 @@
     <row r="166" ht="23.5" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
-      <c r="C166" s="43"/>
-      <c r="D166" s="52"/>
-      <c r="E166" t="s" s="58">
-        <v>247</v>
-      </c>
-      <c r="F166" s="54"/>
-      <c r="G166" s="55"/>
-      <c r="H166" s="56"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="50"/>
+      <c r="E166" t="s" s="56">
+        <v>248</v>
+      </c>
+      <c r="F166" s="52"/>
+      <c r="G166" s="53"/>
+      <c r="H166" s="54"/>
       <c r="I166" s="11"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -25550,14 +25473,14 @@
     <row r="167" ht="23.5" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
-      <c r="C167" s="43"/>
-      <c r="D167" s="52"/>
-      <c r="E167" t="s" s="58">
-        <v>248</v>
-      </c>
-      <c r="F167" s="54"/>
-      <c r="G167" s="55"/>
-      <c r="H167" s="56"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="50"/>
+      <c r="E167" t="s" s="56">
+        <v>249</v>
+      </c>
+      <c r="F167" s="52"/>
+      <c r="G167" s="53"/>
+      <c r="H167" s="54"/>
       <c r="I167" s="11"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -25568,14 +25491,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
-      <c r="C168" s="43"/>
-      <c r="D168" s="52"/>
-      <c r="E168" t="s" s="58">
-        <v>249</v>
-      </c>
-      <c r="F168" s="54"/>
-      <c r="G168" s="55"/>
-      <c r="H168" s="56"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="50"/>
+      <c r="E168" t="s" s="56">
+        <v>250</v>
+      </c>
+      <c r="F168" s="52"/>
+      <c r="G168" s="53"/>
+      <c r="H168" s="54"/>
       <c r="I168" s="11"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
@@ -25586,14 +25509,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
-      <c r="C169" s="43"/>
-      <c r="D169" s="52"/>
-      <c r="E169" t="s" s="58">
-        <v>250</v>
-      </c>
-      <c r="F169" s="54"/>
-      <c r="G169" s="55"/>
-      <c r="H169" s="56"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="50"/>
+      <c r="E169" t="s" s="56">
+        <v>251</v>
+      </c>
+      <c r="F169" s="52"/>
+      <c r="G169" s="53"/>
+      <c r="H169" s="54"/>
       <c r="I169" s="11"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
@@ -25604,14 +25527,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="43"/>
-      <c r="D170" s="52"/>
-      <c r="E170" t="s" s="58">
-        <v>251</v>
-      </c>
-      <c r="F170" s="54"/>
-      <c r="G170" s="55"/>
-      <c r="H170" s="56"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="50"/>
+      <c r="E170" t="s" s="56">
+        <v>252</v>
+      </c>
+      <c r="F170" s="52"/>
+      <c r="G170" s="53"/>
+      <c r="H170" s="54"/>
       <c r="I170" s="11"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -25622,14 +25545,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="43"/>
-      <c r="D171" s="52"/>
-      <c r="E171" t="s" s="58">
-        <v>252</v>
-      </c>
-      <c r="F171" s="54"/>
-      <c r="G171" s="55"/>
-      <c r="H171" s="56"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="50"/>
+      <c r="E171" t="s" s="56">
+        <v>253</v>
+      </c>
+      <c r="F171" s="52"/>
+      <c r="G171" s="53"/>
+      <c r="H171" s="54"/>
       <c r="I171" s="11"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
@@ -25640,14 +25563,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
-      <c r="C172" s="43"/>
-      <c r="D172" s="52"/>
-      <c r="E172" t="s" s="58">
-        <v>253</v>
-      </c>
-      <c r="F172" s="54"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="56"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="50"/>
+      <c r="E172" t="s" s="56">
+        <v>254</v>
+      </c>
+      <c r="F172" s="52"/>
+      <c r="G172" s="53"/>
+      <c r="H172" s="54"/>
       <c r="I172" s="11"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
@@ -25658,14 +25581,14 @@
     <row r="173" ht="23.5" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
-      <c r="C173" s="43"/>
-      <c r="D173" s="52"/>
-      <c r="E173" t="s" s="58">
-        <v>254</v>
-      </c>
-      <c r="F173" s="54"/>
-      <c r="G173" s="55"/>
-      <c r="H173" s="56"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="50"/>
+      <c r="E173" t="s" s="56">
+        <v>255</v>
+      </c>
+      <c r="F173" s="52"/>
+      <c r="G173" s="53"/>
+      <c r="H173" s="54"/>
       <c r="I173" s="11"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
@@ -25676,14 +25599,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
-      <c r="C174" s="43"/>
-      <c r="D174" s="52"/>
-      <c r="E174" t="s" s="58">
-        <v>255</v>
-      </c>
-      <c r="F174" s="54"/>
-      <c r="G174" s="55"/>
-      <c r="H174" s="56"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="50"/>
+      <c r="E174" t="s" s="56">
+        <v>256</v>
+      </c>
+      <c r="F174" s="52"/>
+      <c r="G174" s="53"/>
+      <c r="H174" s="54"/>
       <c r="I174" s="11"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
@@ -25694,14 +25617,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
-      <c r="C175" s="43"/>
-      <c r="D175" s="52"/>
-      <c r="E175" t="s" s="58">
-        <v>256</v>
-      </c>
-      <c r="F175" s="54"/>
-      <c r="G175" s="55"/>
-      <c r="H175" s="56"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="50"/>
+      <c r="E175" t="s" s="56">
+        <v>257</v>
+      </c>
+      <c r="F175" s="52"/>
+      <c r="G175" s="53"/>
+      <c r="H175" s="54"/>
       <c r="I175" s="11"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -25712,14 +25635,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="43"/>
-      <c r="D176" s="52"/>
-      <c r="E176" t="s" s="58">
-        <v>257</v>
-      </c>
-      <c r="F176" s="54"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="56"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="50"/>
+      <c r="E176" t="s" s="56">
+        <v>258</v>
+      </c>
+      <c r="F176" s="52"/>
+      <c r="G176" s="53"/>
+      <c r="H176" s="54"/>
       <c r="I176" s="11"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -25730,14 +25653,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="43"/>
-      <c r="D177" s="52"/>
-      <c r="E177" t="s" s="58">
-        <v>258</v>
-      </c>
-      <c r="F177" s="54"/>
-      <c r="G177" s="55"/>
-      <c r="H177" s="56"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="50"/>
+      <c r="E177" t="s" s="56">
+        <v>259</v>
+      </c>
+      <c r="F177" s="52"/>
+      <c r="G177" s="53"/>
+      <c r="H177" s="54"/>
       <c r="I177" s="11"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -25748,14 +25671,14 @@
     <row r="178" ht="23.5" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="43"/>
-      <c r="D178" s="52"/>
-      <c r="E178" t="s" s="58">
-        <v>259</v>
-      </c>
-      <c r="F178" s="54"/>
-      <c r="G178" s="55"/>
-      <c r="H178" s="56"/>
+      <c r="C178" s="41"/>
+      <c r="D178" s="50"/>
+      <c r="E178" t="s" s="56">
+        <v>260</v>
+      </c>
+      <c r="F178" s="52"/>
+      <c r="G178" s="53"/>
+      <c r="H178" s="54"/>
       <c r="I178" s="11"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
@@ -25766,14 +25689,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
-      <c r="C179" s="43"/>
-      <c r="D179" s="52"/>
-      <c r="E179" t="s" s="58">
-        <v>260</v>
-      </c>
-      <c r="F179" s="54"/>
-      <c r="G179" s="55"/>
-      <c r="H179" s="56"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="50"/>
+      <c r="E179" t="s" s="56">
+        <v>261</v>
+      </c>
+      <c r="F179" s="52"/>
+      <c r="G179" s="53"/>
+      <c r="H179" s="54"/>
       <c r="I179" s="11"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
@@ -25784,14 +25707,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="43"/>
-      <c r="D180" s="52"/>
-      <c r="E180" t="s" s="58">
-        <v>261</v>
-      </c>
-      <c r="F180" s="54"/>
-      <c r="G180" s="56"/>
-      <c r="H180" s="56"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="50"/>
+      <c r="E180" t="s" s="56">
+        <v>262</v>
+      </c>
+      <c r="F180" s="52"/>
+      <c r="G180" s="54"/>
+      <c r="H180" s="54"/>
       <c r="I180" s="11"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
@@ -25802,14 +25725,14 @@
     <row r="181" ht="35.15" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
-      <c r="C181" s="43"/>
-      <c r="D181" s="52"/>
-      <c r="E181" t="s" s="58">
-        <v>262</v>
-      </c>
-      <c r="F181" s="54"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="56"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="50"/>
+      <c r="E181" t="s" s="56">
+        <v>263</v>
+      </c>
+      <c r="F181" s="52"/>
+      <c r="G181" s="53"/>
+      <c r="H181" s="54"/>
       <c r="I181" s="11"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
@@ -25820,14 +25743,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="52"/>
-      <c r="E182" t="s" s="58">
-        <v>263</v>
-      </c>
-      <c r="F182" s="54"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="56"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="50"/>
+      <c r="E182" t="s" s="56">
+        <v>264</v>
+      </c>
+      <c r="F182" s="52"/>
+      <c r="G182" s="53"/>
+      <c r="H182" s="54"/>
       <c r="I182" s="11"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
@@ -25838,14 +25761,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
-      <c r="C183" s="43"/>
-      <c r="D183" s="52"/>
-      <c r="E183" t="s" s="58">
-        <v>264</v>
-      </c>
-      <c r="F183" s="54"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="56"/>
+      <c r="C183" s="41"/>
+      <c r="D183" s="50"/>
+      <c r="E183" t="s" s="56">
+        <v>265</v>
+      </c>
+      <c r="F183" s="52"/>
+      <c r="G183" s="53"/>
+      <c r="H183" s="54"/>
       <c r="I183" s="11"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
@@ -25856,14 +25779,14 @@
     <row r="184" ht="23.5" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
-      <c r="C184" s="43"/>
-      <c r="D184" s="52"/>
-      <c r="E184" t="s" s="58">
-        <v>265</v>
-      </c>
-      <c r="F184" s="54"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="56"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="50"/>
+      <c r="E184" t="s" s="56">
+        <v>266</v>
+      </c>
+      <c r="F184" s="52"/>
+      <c r="G184" s="53"/>
+      <c r="H184" s="54"/>
       <c r="I184" s="11"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -25874,14 +25797,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
-      <c r="C185" s="43"/>
-      <c r="D185" s="52"/>
-      <c r="E185" t="s" s="58">
-        <v>266</v>
-      </c>
-      <c r="F185" s="54"/>
-      <c r="G185" s="56"/>
-      <c r="H185" s="56"/>
+      <c r="C185" s="41"/>
+      <c r="D185" s="50"/>
+      <c r="E185" t="s" s="56">
+        <v>267</v>
+      </c>
+      <c r="F185" s="52"/>
+      <c r="G185" s="54"/>
+      <c r="H185" s="54"/>
       <c r="I185" s="11"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
@@ -25892,14 +25815,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="43"/>
-      <c r="D186" s="52"/>
-      <c r="E186" t="s" s="58">
-        <v>267</v>
-      </c>
-      <c r="F186" s="54"/>
-      <c r="G186" s="55"/>
-      <c r="H186" s="56"/>
+      <c r="C186" s="41"/>
+      <c r="D186" s="50"/>
+      <c r="E186" t="s" s="56">
+        <v>268</v>
+      </c>
+      <c r="F186" s="52"/>
+      <c r="G186" s="53"/>
+      <c r="H186" s="54"/>
       <c r="I186" s="11"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
@@ -25910,14 +25833,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
-      <c r="C187" s="43"/>
-      <c r="D187" s="52"/>
-      <c r="E187" t="s" s="58">
-        <v>268</v>
-      </c>
-      <c r="F187" s="54"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="56"/>
+      <c r="C187" s="41"/>
+      <c r="D187" s="50"/>
+      <c r="E187" t="s" s="56">
+        <v>269</v>
+      </c>
+      <c r="F187" s="52"/>
+      <c r="G187" s="53"/>
+      <c r="H187" s="54"/>
       <c r="I187" s="11"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -25928,14 +25851,14 @@
     <row r="188" ht="35.15" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
-      <c r="C188" s="43"/>
-      <c r="D188" s="52"/>
-      <c r="E188" t="s" s="58">
-        <v>269</v>
-      </c>
-      <c r="F188" s="54"/>
-      <c r="G188" s="55"/>
-      <c r="H188" s="56"/>
+      <c r="C188" s="41"/>
+      <c r="D188" s="50"/>
+      <c r="E188" t="s" s="56">
+        <v>270</v>
+      </c>
+      <c r="F188" s="52"/>
+      <c r="G188" s="53"/>
+      <c r="H188" s="54"/>
       <c r="I188" s="11"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -25946,14 +25869,14 @@
     <row r="189" ht="23.5" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
-      <c r="C189" s="43"/>
-      <c r="D189" s="52"/>
-      <c r="E189" t="s" s="58">
-        <v>270</v>
-      </c>
-      <c r="F189" s="54"/>
-      <c r="G189" s="55"/>
-      <c r="H189" s="56"/>
+      <c r="C189" s="41"/>
+      <c r="D189" s="50"/>
+      <c r="E189" t="s" s="56">
+        <v>271</v>
+      </c>
+      <c r="F189" s="52"/>
+      <c r="G189" s="53"/>
+      <c r="H189" s="54"/>
       <c r="I189" s="11"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -25964,14 +25887,14 @@
     <row r="190" ht="35.15" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
-      <c r="C190" s="43"/>
-      <c r="D190" s="52"/>
-      <c r="E190" t="s" s="58">
+      <c r="C190" s="41"/>
+      <c r="D190" s="50"/>
+      <c r="E190" t="s" s="56">
         <v>18</v>
       </c>
-      <c r="F190" s="54"/>
-      <c r="G190" s="55"/>
-      <c r="H190" s="56"/>
+      <c r="F190" s="52"/>
+      <c r="G190" s="53"/>
+      <c r="H190" s="54"/>
       <c r="I190" s="11"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
@@ -25982,14 +25905,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
-      <c r="C191" s="43"/>
-      <c r="D191" s="52"/>
-      <c r="E191" t="s" s="58">
-        <v>271</v>
-      </c>
-      <c r="F191" s="54"/>
-      <c r="G191" s="55"/>
-      <c r="H191" s="56"/>
+      <c r="C191" s="41"/>
+      <c r="D191" s="50"/>
+      <c r="E191" t="s" s="56">
+        <v>272</v>
+      </c>
+      <c r="F191" s="52"/>
+      <c r="G191" s="53"/>
+      <c r="H191" s="54"/>
       <c r="I191" s="11"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -26000,14 +25923,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
-      <c r="C192" s="43"/>
-      <c r="D192" s="52"/>
-      <c r="E192" t="s" s="58">
-        <v>272</v>
-      </c>
-      <c r="F192" s="54"/>
-      <c r="G192" s="55"/>
-      <c r="H192" s="56"/>
+      <c r="C192" s="41"/>
+      <c r="D192" s="50"/>
+      <c r="E192" t="s" s="56">
+        <v>273</v>
+      </c>
+      <c r="F192" s="52"/>
+      <c r="G192" s="53"/>
+      <c r="H192" s="54"/>
       <c r="I192" s="11"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -26018,14 +25941,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
-      <c r="C193" s="43"/>
-      <c r="D193" s="52"/>
-      <c r="E193" t="s" s="58">
-        <v>273</v>
-      </c>
-      <c r="F193" s="54"/>
-      <c r="G193" s="55"/>
-      <c r="H193" s="56"/>
+      <c r="C193" s="41"/>
+      <c r="D193" s="50"/>
+      <c r="E193" t="s" s="56">
+        <v>274</v>
+      </c>
+      <c r="F193" s="52"/>
+      <c r="G193" s="53"/>
+      <c r="H193" s="54"/>
       <c r="I193" s="11"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
@@ -26036,14 +25959,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
-      <c r="C194" s="43"/>
-      <c r="D194" s="52"/>
-      <c r="E194" t="s" s="58">
-        <v>274</v>
-      </c>
-      <c r="F194" s="54"/>
-      <c r="G194" s="55"/>
-      <c r="H194" s="56"/>
+      <c r="C194" s="41"/>
+      <c r="D194" s="50"/>
+      <c r="E194" t="s" s="56">
+        <v>275</v>
+      </c>
+      <c r="F194" s="52"/>
+      <c r="G194" s="53"/>
+      <c r="H194" s="54"/>
       <c r="I194" s="11"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
@@ -26054,14 +25977,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="43"/>
-      <c r="D195" s="52"/>
-      <c r="E195" t="s" s="58">
-        <v>275</v>
-      </c>
-      <c r="F195" s="54"/>
-      <c r="G195" s="55"/>
-      <c r="H195" s="56"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="50"/>
+      <c r="E195" t="s" s="56">
+        <v>276</v>
+      </c>
+      <c r="F195" s="52"/>
+      <c r="G195" s="53"/>
+      <c r="H195" s="54"/>
       <c r="I195" s="11"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
@@ -26072,14 +25995,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
-      <c r="C196" s="43"/>
-      <c r="D196" s="52"/>
-      <c r="E196" t="s" s="58">
-        <v>276</v>
-      </c>
-      <c r="F196" s="54"/>
-      <c r="G196" s="55"/>
-      <c r="H196" s="56"/>
+      <c r="C196" s="41"/>
+      <c r="D196" s="50"/>
+      <c r="E196" t="s" s="56">
+        <v>277</v>
+      </c>
+      <c r="F196" s="52"/>
+      <c r="G196" s="53"/>
+      <c r="H196" s="54"/>
       <c r="I196" s="11"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -26090,14 +26013,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
-      <c r="C197" s="43"/>
-      <c r="D197" s="52"/>
-      <c r="E197" t="s" s="58">
-        <v>277</v>
-      </c>
-      <c r="F197" s="65"/>
-      <c r="G197" s="66"/>
-      <c r="H197" s="67"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="50"/>
+      <c r="E197" t="s" s="56">
+        <v>278</v>
+      </c>
+      <c r="F197" s="63"/>
+      <c r="G197" s="64"/>
+      <c r="H197" s="65"/>
       <c r="I197" s="11"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
@@ -26108,14 +26031,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
-      <c r="C198" s="43"/>
-      <c r="D198" s="68"/>
-      <c r="E198" t="s" s="58">
-        <v>278</v>
-      </c>
-      <c r="F198" s="69"/>
-      <c r="G198" s="70"/>
-      <c r="H198" s="70"/>
+      <c r="C198" s="41"/>
+      <c r="D198" s="66"/>
+      <c r="E198" t="s" s="56">
+        <v>279</v>
+      </c>
+      <c r="F198" s="67"/>
+      <c r="G198" s="68"/>
+      <c r="H198" s="68"/>
       <c r="I198" s="11"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
@@ -26127,13 +26050,13 @@
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="71"/>
-      <c r="E199" t="s" s="72">
-        <v>279</v>
-      </c>
-      <c r="F199" s="73"/>
-      <c r="G199" s="74"/>
-      <c r="H199" s="74"/>
+      <c r="D199" s="69"/>
+      <c r="E199" t="s" s="70">
+        <v>280</v>
+      </c>
+      <c r="F199" s="71"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="34"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
@@ -26146,7 +26069,7 @@
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="60"/>
+      <c r="E200" s="59"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
